--- a/Symphony/2021/March/All Details/30.03.2021/MC Bank Statement March-2021.xlsx
+++ b/Symphony/2021/March/All Details/30.03.2021/MC Bank Statement March-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" r:id="rId1"/>
@@ -3097,6 +3097,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3124,22 +3136,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3369,7 +3369,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774349</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>238126</xdr:rowOff>
     </xdr:from>
@@ -3407,8 +3407,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1031524" y="238126"/>
-          <a:ext cx="140052" cy="290878"/>
+          <a:off x="962025" y="238126"/>
+          <a:ext cx="209551" cy="290878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5005,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6257,11 +6257,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="Q34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="18" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6272,67 +6272,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="301" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="302" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="300"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="304"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6341,52 +6341,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="307" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="296" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="296" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="296" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="305" t="s">
+      <c r="I4" s="296" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="305" t="s">
+      <c r="J4" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="296" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="298" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="307" t="s">
+      <c r="P4" s="309" t="s">
         <v>105</v>
       </c>
       <c r="Q4" s="191" t="s">
@@ -6399,22 +6399,22 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="302"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="308"/>
+      <c r="A5" s="306"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="310"/>
       <c r="Q5" s="196" t="s">
         <v>106</v>
       </c>
@@ -9627,8 +9627,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9646,6 +9644,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9659,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -21410,8 +21410,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
